--- a/java/Chapter 7/Question7_5/Square Cut Tester - Chapter 10, Problem 5.xlsx
+++ b/java/Chapter 7/Question7_5/Square Cut Tester - Chapter 10, Problem 5.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="21075" windowHeight="5955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30705" windowHeight="11550"/>
   </bookViews>
   <sheets>
     <sheet name="Diagram" sheetId="1" r:id="rId1"/>
     <sheet name="Square" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
+  <oleSize ref="A1:AE36"/>
 </workbook>
 </file>
 
@@ -274,6 +275,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -536,11 +540,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="62221312"/>
-        <c:axId val="62223104"/>
+        <c:axId val="96128560"/>
+        <c:axId val="260454336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="62221312"/>
+        <c:axId val="96128560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -550,12 +554,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62223104"/>
+        <c:crossAx val="260454336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62223104"/>
+        <c:axId val="260454336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -566,7 +570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62221312"/>
+        <c:crossAx val="96128560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -666,7 +670,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -701,7 +705,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -913,7 +917,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D5"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,9 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
